--- a/tmp_open0.04-close0.xlsx
+++ b/tmp_open0.04-close0.xlsx
@@ -1131,7 +1131,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
